--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1544259.043690992</v>
+        <v>1506222.427509716</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330482.1550308266</v>
+        <v>200798.9951164284</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481812</v>
+        <v>7956703.636481814</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8354366.051808723</v>
+        <v>8354366.051808724</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.7592387672937</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>7.293863480540836</v>
@@ -676,13 +676,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
-        <v>274.2838073416025</v>
+        <v>197.3086384053327</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>154.44280267841</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>135.3585910039206</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
-        <v>219.4405486221113</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>76.93044878667203</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>174.4097407145716</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>87.29414192636341</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.13315040925564</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.15242676576017</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.7812714875491</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
         <v>274.2838073416025</v>
@@ -1144,10 +1144,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="F8" t="n">
-        <v>240.9299003719208</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.8457863956489</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>17.76425168466123</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -1384,10 +1384,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.8213943060122</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>148.6837087419612</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3570519053243</v>
+        <v>43.43543629068183</v>
       </c>
       <c r="H12" t="n">
         <v>104.0288287853823</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.5880156630749</v>
@@ -1511,7 +1511,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>42.3255937918897</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>110.574336931324</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1624,10 +1624,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>158.5427450954927</v>
       </c>
       <c r="I14" t="n">
-        <v>148.6837087419612</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3570519053243</v>
+        <v>43.43543629068183</v>
       </c>
       <c r="H15" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.029623222466</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>110.574336931324</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6097194764729</v>
+        <v>365.7915377562409</v>
       </c>
       <c r="H17" t="n">
-        <v>185.7320265623716</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1940,10 +1940,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6974464808964</v>
+        <v>114.0089307023089</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.10882157431157</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>253.2491815066209</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>17.5479045610137</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>75.57443729414859</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
         <v>251.3781599023558</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>53.66853612673686</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.81771630496191</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>5.408972804184477</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>215.385474300982</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
@@ -2335,10 +2335,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>128.981732669668</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853824</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T24" t="n">
         <v>195.6974464808964</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>83.58419887257666</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -2566,7 +2566,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.0386208165702</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>36.56476296975374</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -2651,7 +2651,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
         <v>63.56783007605712</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
         <v>11.33166980843018</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>43.3161350561189</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.69674204068315</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>171.729853014972</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>344.149771914662</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3570519053243</v>
+        <v>43.43543629068183</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I30" t="n">
         <v>63.56783007605712</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T30" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U30" t="n">
         <v>224.6133508632724</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>110.574336931324</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.3094207068132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>30.2583840179211</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>67.13307191743469</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S33" t="n">
         <v>156.5880156630749</v>
@@ -3231,28 +3231,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>90.83002103235172</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
@@ -3280,7 +3280,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>208.7926494580387</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>192.0613351455867</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>133.606938134229</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>104.0288287853824</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.8621140549593</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>199.5571624374481</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>29.77726917376037</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>76.42896498266205</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -3593,16 +3593,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5880156630749</v>
+        <v>154.8379018919794</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>83.58419887257666</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0218075870219</v>
+        <v>143.4656465272897</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>272.6980508033818</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>118.6013697453236</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -3830,13 +3830,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2787150142871</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
         <v>63.56783007605712</v>
@@ -3872,7 +3872,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6974464808964</v>
+        <v>50.4411006262517</v>
       </c>
       <c r="U42" t="n">
         <v>224.6133508632724</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>12.45004149977277</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>50.42797305210072</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>65.34002620319505</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>12.74606923871925</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>12.1072131707399</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
         <v>156.5880156630749</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.5035676309304</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>83.58419887257701</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594.8635884189121</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="C2" t="n">
-        <v>594.8635884189121</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="D2" t="n">
-        <v>594.8635884189121</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="E2" t="n">
-        <v>321.3694078458881</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="F2" t="n">
-        <v>314.0018689766549</v>
+        <v>444.2123902558636</v>
       </c>
       <c r="G2" t="n">
-        <v>298.9970554374318</v>
+        <v>429.2075767166405</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T2" t="n">
-        <v>871.9179392690156</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U2" t="n">
-        <v>871.9179392690156</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V2" t="n">
-        <v>594.8635884189121</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="W2" t="n">
-        <v>594.8635884189121</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="X2" t="n">
-        <v>594.8635884189121</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="Y2" t="n">
-        <v>594.8635884189121</v>
+        <v>451.5799291250968</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.717203244413</v>
+        <v>265.3228522074107</v>
       </c>
       <c r="C3" t="n">
-        <v>246.717203244413</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D3" t="n">
-        <v>246.717203244413</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E3" t="n">
-        <v>246.717203244413</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F3" t="n">
-        <v>246.717203244413</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G3" t="n">
         <v>109.3200212191178</v>
@@ -4409,19 +4409,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>409.2622680873972</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M3" t="n">
-        <v>549.5069725377944</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>711.659913028337</v>
       </c>
       <c r="O3" t="n">
         <v>817.386591515115</v>
@@ -4442,19 +4442,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>870.2087878843885</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>635.9575444099894</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>383.4430527433227</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X3" t="n">
-        <v>246.717203244413</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="Y3" t="n">
-        <v>246.717203244413</v>
+        <v>432.3654033289712</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
         <v>36.86635076695784</v>
@@ -4524,16 +4524,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.0265276662026</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C5" t="n">
-        <v>321.3694078458881</v>
+        <v>122.688517522284</v>
       </c>
       <c r="D5" t="n">
-        <v>321.3694078458881</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E5" t="n">
-        <v>321.3694078458881</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F5" t="n">
-        <v>314.001868976655</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G5" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>820.0808785163063</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.0808785163063</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>429.6614429383567</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>256.9083278601739</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0665668439879</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1441712859059</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1441712859059</v>
+        <v>300.8769847019996</v>
       </c>
       <c r="N6" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O6" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4679,19 +4679,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>920.9637740991661</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V6" t="n">
-        <v>686.7125306247669</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W6" t="n">
-        <v>434.1980389581003</v>
+        <v>1008.959328430689</v>
       </c>
       <c r="X6" t="n">
-        <v>227.6711403636777</v>
+        <v>802.4324298362668</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>596.7039940599172</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>187.3770240139471</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4746,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.13522936641</v>
+        <v>876.1440460456532</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.13522936641</v>
+        <v>599.0896951955497</v>
       </c>
       <c r="D8" t="n">
-        <v>820.0808785163065</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="E8" t="n">
-        <v>543.0265276662028</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F8" t="n">
-        <v>299.6629919369898</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,10 +4819,10 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.695819665511</v>
+        <v>499.8936553037125</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>327.1405402255297</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E9" t="n">
         <v>21.9427045873282</v>
@@ -4883,25 +4883,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>168.5779744919641</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>416.6555789338821</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>416.6555789338821</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4916,19 +4916,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>887.1899905829264</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>652.9387471085272</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>400.4242554418605</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="X9" t="n">
-        <v>400.4242554418605</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.695819665511</v>
+        <v>666.936206425273</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I10" t="n">
-        <v>126.6025577647144</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4995,19 +4995,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1997.793701835199</v>
+        <v>1153.977385063479</v>
       </c>
       <c r="C11" t="n">
-        <v>1627.101685997883</v>
+        <v>1153.977385063479</v>
       </c>
       <c r="D11" t="n">
-        <v>1266.894885235662</v>
+        <v>1153.977385063479</v>
       </c>
       <c r="E11" t="n">
-        <v>879.9069703313312</v>
+        <v>766.9894701591486</v>
       </c>
       <c r="F11" t="n">
-        <v>468.4990274216939</v>
+        <v>355.5815272495113</v>
       </c>
       <c r="G11" t="n">
-        <v>50.71143199091319</v>
+        <v>355.5815272495113</v>
       </c>
       <c r="H11" t="n">
         <v>50.71143199091319</v>
@@ -5041,13 +5041,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K11" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
@@ -5068,25 +5068,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T11" t="n">
-        <v>2385.38603515984</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U11" t="n">
-        <v>2385.38603515984</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V11" t="n">
-        <v>2385.38603515984</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W11" t="n">
-        <v>2385.38603515984</v>
+        <v>1528.58506095355</v>
       </c>
       <c r="X11" t="n">
-        <v>2385.38603515984</v>
+        <v>1153.977385063479</v>
       </c>
       <c r="Y11" t="n">
-        <v>2385.38603515984</v>
+        <v>1153.977385063479</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G12" t="n">
         <v>220.0009863964076</v>
@@ -5138,34 +5138,34 @@
         <v>2160.184497733399</v>
       </c>
       <c r="P12" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S12" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U12" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5220,31 +5220,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>281.6639118382623</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U13" t="n">
-        <v>281.6639118382623</v>
+        <v>162.402681416493</v>
       </c>
       <c r="V13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y13" t="n">
-        <v>281.6639118382623</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2147.979266221018</v>
+        <v>1569.555975915259</v>
       </c>
       <c r="C14" t="n">
-        <v>1777.287250383702</v>
+        <v>1198.863960077943</v>
       </c>
       <c r="D14" t="n">
-        <v>1417.080449621481</v>
+        <v>1198.863960077943</v>
       </c>
       <c r="E14" t="n">
-        <v>1030.092534717151</v>
+        <v>1198.863960077943</v>
       </c>
       <c r="F14" t="n">
-        <v>618.6845918075132</v>
+        <v>787.4560171683061</v>
       </c>
       <c r="G14" t="n">
-        <v>200.8969963767325</v>
+        <v>369.6684217375254</v>
       </c>
       <c r="H14" t="n">
-        <v>200.8969963767325</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724806</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M14" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>1960.148977684184</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1960.148977684184</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1960.148977684184</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1569.555975915259</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C15" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D15" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E15" t="n">
-        <v>354.9574895622956</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F15" t="n">
-        <v>210.0016995789124</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G15" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H15" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K15" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L15" t="n">
-        <v>687.7199234768461</v>
+        <v>614.2265405234109</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.116407734492</v>
+        <v>1123.623024781057</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.393833177324</v>
+        <v>1661.900450223889</v>
       </c>
       <c r="O15" t="n">
-        <v>2160.184497733399</v>
+        <v>2086.691114779963</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2411.196532214049</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S15" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T15" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U15" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W15" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>531.9067209977148</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>362.8854036347532</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>204.6342572205938</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5466,22 +5466,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>162.402681416493</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>162.402681416493</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1984.007811493205</v>
+        <v>1706.086369900328</v>
       </c>
       <c r="C17" t="n">
-        <v>1613.315795655889</v>
+        <v>1706.086369900328</v>
       </c>
       <c r="D17" t="n">
-        <v>1613.315795655889</v>
+        <v>1706.086369900328</v>
       </c>
       <c r="E17" t="n">
-        <v>1226.327880751558</v>
+        <v>1319.098454995997</v>
       </c>
       <c r="F17" t="n">
-        <v>814.9199378419212</v>
+        <v>907.6905120863598</v>
       </c>
       <c r="G17" t="n">
-        <v>397.1323424111405</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723813</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5518,16 +5518,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724811</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U17" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V17" t="n">
-        <v>1984.007811493205</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W17" t="n">
-        <v>1984.007811493205</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X17" t="n">
-        <v>1984.007811493205</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1984.007811493205</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E18" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F18" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G18" t="n">
-        <v>220.0009863964077</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K18" t="n">
-        <v>366.1489360814929</v>
+        <v>189.9533910490641</v>
       </c>
       <c r="L18" t="n">
-        <v>738.601607855021</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P18" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
@@ -5624,22 +5624,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="19">
@@ -5685,34 +5685,34 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N19" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O19" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P19" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>652.1594481042732</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>652.1594481042732</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>437.3871843973041</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T19" t="n">
-        <v>437.3871843973041</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U19" t="n">
-        <v>437.3871843973041</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="V19" t="n">
-        <v>437.3871843973041</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="W19" t="n">
-        <v>437.3871843973041</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="X19" t="n">
         <v>208.9625784050725</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1342.979620647491</v>
+        <v>832.8113907378663</v>
       </c>
       <c r="C20" t="n">
-        <v>1342.979620647491</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="D20" t="n">
-        <v>1342.979620647491</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E20" t="n">
-        <v>955.9917057431599</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F20" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G20" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2517.846443423423</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2338.56011245992</v>
+        <v>2459.233784097024</v>
       </c>
       <c r="T20" t="n">
-        <v>2338.56011245992</v>
+        <v>2239.521734956206</v>
       </c>
       <c r="U20" t="n">
-        <v>2084.642779225218</v>
+        <v>1985.604401721503</v>
       </c>
       <c r="V20" t="n">
-        <v>2084.642779225218</v>
+        <v>1985.604401721503</v>
       </c>
       <c r="W20" t="n">
-        <v>1730.571953972132</v>
+        <v>1985.604401721503</v>
       </c>
       <c r="X20" t="n">
-        <v>1730.571953972132</v>
+        <v>1610.996725831433</v>
       </c>
       <c r="Y20" t="n">
-        <v>1730.571953972132</v>
+        <v>1220.403724062508</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F21" t="n">
-        <v>210.0016995789124</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="G21" t="n">
-        <v>155.791057026653</v>
+        <v>218.2331947084326</v>
       </c>
       <c r="H21" t="n">
-        <v>50.71143199091319</v>
+        <v>113.1535696726929</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K21" t="n">
-        <v>189.9533910490641</v>
+        <v>197.346701895549</v>
       </c>
       <c r="L21" t="n">
-        <v>581.2256663737257</v>
+        <v>588.6189772202106</v>
       </c>
       <c r="M21" t="n">
-        <v>1090.622150631372</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N21" t="n">
         <v>1620.913172155677</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C22" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D22" t="n">
-        <v>674.0784872660178</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E22" t="n">
-        <v>525.6192709294529</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F22" t="n">
-        <v>377.9838957680342</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
         <v>50.71143199091319</v>
@@ -5922,40 +5922,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N22" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O22" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>679.5420961591334</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V22" t="n">
-        <v>679.5420961591334</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W22" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X22" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y22" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.859550404841</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="C23" t="n">
-        <v>1945.167534567525</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="D23" t="n">
-        <v>1584.960733805304</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E23" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
@@ -5995,13 +5995,13 @@
         <v>432.7629010724813</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6019,22 +6019,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W23" t="n">
-        <v>2315.859550404841</v>
+        <v>2405.287021091449</v>
       </c>
       <c r="X23" t="n">
-        <v>2315.859550404841</v>
+        <v>2405.287021091449</v>
       </c>
       <c r="Y23" t="n">
-        <v>2315.859550404841</v>
+        <v>2014.694019322524</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C24" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D24" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E24" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F24" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G24" t="n">
-        <v>220.0009863964077</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L24" t="n">
-        <v>687.719923476846</v>
+        <v>695.113234323331</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1204.509718580977</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.913172155677</v>
+        <v>1705.097349539201</v>
       </c>
       <c r="O24" t="n">
-        <v>2045.703836711752</v>
+        <v>2129.888014095276</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.209254145837</v>
+        <v>2454.393431529361</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2470.252003537142</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T24" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U24" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V24" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K25" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L25" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M25" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N25" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O25" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.143115835986</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>2162.232199081418</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V25" t="n">
-        <v>1906.740935377439</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1168.59816349478</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9061476574645</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D26" t="n">
-        <v>437.699346895244</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E26" t="n">
-        <v>50.71143199091319</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F26" t="n">
         <v>50.71143199091319</v>
@@ -6253,25 +6253,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S26" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T26" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="U26" t="n">
-        <v>2321.391174478417</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="V26" t="n">
-        <v>2321.391174478417</v>
+        <v>2024.433529670521</v>
       </c>
       <c r="W26" t="n">
-        <v>2321.391174478417</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="X26" t="n">
-        <v>1946.783498588347</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="Y26" t="n">
-        <v>1556.190496819422</v>
+        <v>1596.906423891743</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>356.7252812502705</v>
       </c>
       <c r="G27" t="n">
-        <v>220.0009863964077</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H27" t="n">
         <v>114.9213613606679</v>
@@ -6305,19 +6305,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>120.4127199202217</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>197.346701895549</v>
       </c>
       <c r="L27" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N27" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
         <v>2045.703836711752</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="C28" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="D28" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="E28" t="n">
-        <v>1906.740935377439</v>
+        <v>242.1004789261894</v>
       </c>
       <c r="F28" t="n">
-        <v>1906.740935377439</v>
+        <v>94.46510376477067</v>
       </c>
       <c r="G28" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H28" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I28" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J28" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K28" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L28" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M28" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N28" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O28" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P28" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q28" t="n">
-        <v>2502.243095973062</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>2352.465678931757</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>2137.693415224788</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>1909.464917236715</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V28" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W28" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X28" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y28" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>849.1072898048812</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="C29" t="n">
-        <v>849.1072898048812</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D29" t="n">
         <v>849.1072898048812</v>
@@ -6466,10 +6466,10 @@
         <v>154.6737472370296</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6490,25 +6490,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S29" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T29" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U29" t="n">
-        <v>1882.655886206635</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V29" t="n">
-        <v>1550.804147294999</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="W29" t="n">
-        <v>1196.733322041914</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="X29" t="n">
-        <v>849.1072898048812</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="Y29" t="n">
-        <v>849.1072898048812</v>
+        <v>1596.906423891743</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C30" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964077</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H30" t="n">
         <v>114.9213613606679</v>
@@ -6542,19 +6542,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521845</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L30" t="n">
-        <v>687.719923476846</v>
+        <v>695.113234323331</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.116407734492</v>
+        <v>1204.509718580977</v>
       </c>
       <c r="N30" t="n">
-        <v>1620.913172155677</v>
+        <v>1742.787144023809</v>
       </c>
       <c r="O30" t="n">
         <v>2045.703836711752</v>
@@ -6566,28 +6566,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S30" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X30" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="31">
@@ -6633,37 +6633,37 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O31" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P31" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>679.5420961591334</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U31" t="n">
-        <v>679.5420961591334</v>
+        <v>162.402681416493</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591334</v>
+        <v>162.402681416493</v>
       </c>
       <c r="W31" t="n">
-        <v>390.5596952627541</v>
+        <v>162.402681416493</v>
       </c>
       <c r="X31" t="n">
-        <v>162.1350892705225</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y31" t="n">
         <v>50.71143199091319</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1110.290124130448</v>
+        <v>781.6102485904496</v>
       </c>
       <c r="C32" t="n">
-        <v>739.5981082931316</v>
+        <v>410.9182327531338</v>
       </c>
       <c r="D32" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E32" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F32" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G32" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H32" t="n">
         <v>50.71143199091319</v>
@@ -6724,28 +6724,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R32" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2471.287047559323</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.723023298797</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="U32" t="n">
-        <v>2186.805690064094</v>
+        <v>2288.474084827172</v>
       </c>
       <c r="V32" t="n">
-        <v>1854.953951152458</v>
+        <v>2288.474084827172</v>
       </c>
       <c r="W32" t="n">
-        <v>1500.883125899373</v>
+        <v>1934.403259574086</v>
       </c>
       <c r="X32" t="n">
-        <v>1500.883125899373</v>
+        <v>1559.795583684016</v>
       </c>
       <c r="Y32" t="n">
-        <v>1110.290124130448</v>
+        <v>1169.202581915091</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K33" t="n">
-        <v>296.4476481521845</v>
+        <v>197.346701895549</v>
       </c>
       <c r="L33" t="n">
-        <v>687.719923476846</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6870,34 +6870,34 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O34" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P34" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>431.441328879567</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>431.441328879567</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U34" t="n">
-        <v>431.441328879567</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V34" t="n">
-        <v>431.441328879567</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W34" t="n">
-        <v>142.4589279831877</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X34" t="n">
         <v>50.71143199091319</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1790.907772523649</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="C35" t="n">
-        <v>1420.215756686333</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D35" t="n">
-        <v>1060.008955924112</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E35" t="n">
-        <v>673.0210410197815</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F35" t="n">
-        <v>261.6130981101442</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G35" t="n">
         <v>50.71143199091319</v>
@@ -6937,13 +6937,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6970,19 +6970,19 @@
         <v>2535.571599545659</v>
       </c>
       <c r="U35" t="n">
-        <v>2535.571599545659</v>
+        <v>2341.570250913754</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.571599545659</v>
+        <v>2341.570250913754</v>
       </c>
       <c r="W35" t="n">
-        <v>2181.500774292574</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="X35" t="n">
-        <v>2181.500774292574</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="Y35" t="n">
-        <v>1790.907772523649</v>
+        <v>1596.906423891743</v>
       </c>
     </row>
     <row r="36">
@@ -7004,28 +7004,28 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F36" t="n">
-        <v>354.9574895622956</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964077</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4476481521845</v>
+        <v>197.346701895549</v>
       </c>
       <c r="L36" t="n">
-        <v>687.719923476846</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N36" t="n">
         <v>1620.913172155677</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="D37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="E37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="F37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I37" t="n">
         <v>50.71143199091319</v>
@@ -7107,40 +7107,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>646.2135925865362</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V37" t="n">
-        <v>390.7223288825572</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="W37" t="n">
-        <v>390.7223288825572</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="X37" t="n">
-        <v>390.7223288825572</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.7640724504681</v>
+        <v>189.0582880536082</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>986.0971008796566</v>
+        <v>1197.948968469473</v>
       </c>
       <c r="C38" t="n">
-        <v>615.4050850423408</v>
+        <v>827.2569526321569</v>
       </c>
       <c r="D38" t="n">
-        <v>615.4050850423408</v>
+        <v>827.2569526321569</v>
       </c>
       <c r="E38" t="n">
-        <v>615.4050850423408</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F38" t="n">
-        <v>615.4050850423408</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G38" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S38" t="n">
-        <v>2356.285268582156</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T38" t="n">
-        <v>2356.285268582156</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U38" t="n">
-        <v>2102.367935347454</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="V38" t="n">
-        <v>2102.367935347454</v>
+        <v>1960.148977684184</v>
       </c>
       <c r="W38" t="n">
-        <v>1748.297110094368</v>
+        <v>1960.148977684184</v>
       </c>
       <c r="X38" t="n">
-        <v>1373.689434204298</v>
+        <v>1585.541301794114</v>
       </c>
       <c r="Y38" t="n">
-        <v>1373.689434204298</v>
+        <v>1585.541301794114</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>832.9084402786798</v>
+        <v>834.6762319666548</v>
       </c>
       <c r="C39" t="n">
-        <v>660.1553252004969</v>
+        <v>661.9231168884719</v>
       </c>
       <c r="D39" t="n">
-        <v>512.5670185594408</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E39" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F39" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G39" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H39" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>120.4127199202217</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9669871305374</v>
+        <v>197.346701895549</v>
       </c>
       <c r="L39" t="n">
         <v>573.239262455199</v>
@@ -7280,25 +7280,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2323.528421865784</v>
+        <v>2325.296213553759</v>
       </c>
       <c r="T39" t="n">
-        <v>2125.854233501242</v>
+        <v>2127.622025189217</v>
       </c>
       <c r="U39" t="n">
-        <v>1898.972060912078</v>
+        <v>1900.739852600053</v>
       </c>
       <c r="V39" t="n">
-        <v>1664.720817437679</v>
+        <v>1666.488609125654</v>
       </c>
       <c r="W39" t="n">
-        <v>1412.206325771012</v>
+        <v>1413.974117458987</v>
       </c>
       <c r="X39" t="n">
-        <v>1205.67942717659</v>
+        <v>1207.447218864565</v>
       </c>
       <c r="Y39" t="n">
-        <v>999.9509914002402</v>
+        <v>1001.718783088215</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K40" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L40" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M40" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O40" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.143115835986</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>2162.232199081418</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="V40" t="n">
-        <v>1906.740935377439</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="W40" t="n">
-        <v>1906.740935377439</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.586901072978</v>
+        <v>696.8560243973016</v>
       </c>
       <c r="C41" t="n">
-        <v>1266.894885235662</v>
+        <v>326.1640085599857</v>
       </c>
       <c r="D41" t="n">
-        <v>1266.894885235662</v>
+        <v>326.1640085599857</v>
       </c>
       <c r="E41" t="n">
-        <v>879.9069703313312</v>
+        <v>326.1640085599857</v>
       </c>
       <c r="F41" t="n">
-        <v>468.4990274216939</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G41" t="n">
         <v>50.71143199091319</v>
@@ -7411,19 +7411,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K41" t="n">
         <v>432.7629010724813</v>
       </c>
       <c r="L41" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7447,16 +7447,16 @@
         <v>2535.571599545659</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.571599545659</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="W41" t="n">
-        <v>2535.571599545659</v>
+        <v>1849.649035380938</v>
       </c>
       <c r="X41" t="n">
-        <v>2415.772236166545</v>
+        <v>1475.041359490868</v>
       </c>
       <c r="Y41" t="n">
-        <v>2025.179234397619</v>
+        <v>1084.448357721943</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C42" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D42" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E42" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F42" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G42" t="n">
-        <v>218.2331947084326</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H42" t="n">
         <v>114.9213613606679</v>
@@ -7490,25 +7490,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K42" t="n">
-        <v>266.1511645140613</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L42" t="n">
-        <v>657.423439838723</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M42" t="n">
-        <v>1166.819924096369</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N42" t="n">
-        <v>1705.097349539201</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.888014095276</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2454.393431529361</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
@@ -7520,22 +7520,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U42" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V42" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W42" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="G43" t="n">
-        <v>50.71143199091319</v>
+        <v>221.5383778997925</v>
       </c>
       <c r="H43" t="n">
-        <v>50.71143199091319</v>
+        <v>63.28723148563316</v>
       </c>
       <c r="I43" t="n">
         <v>50.71143199091319</v>
@@ -7599,22 +7599,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>628.6047496418601</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>339.6938328872925</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V43" t="n">
-        <v>339.6938328872925</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1693.101712465756</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C44" t="n">
-        <v>1627.101685997883</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D44" t="n">
         <v>1266.894885235662</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S44" t="n">
-        <v>2471.287047559323</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T44" t="n">
-        <v>2471.287047559323</v>
+        <v>2343.410451169309</v>
       </c>
       <c r="U44" t="n">
-        <v>2471.287047559323</v>
+        <v>2343.410451169309</v>
       </c>
       <c r="V44" t="n">
-        <v>2471.287047559323</v>
+        <v>2011.558712257673</v>
       </c>
       <c r="W44" t="n">
-        <v>2471.287047559323</v>
+        <v>1657.487887004587</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.287047559323</v>
+        <v>1657.487887004587</v>
       </c>
       <c r="Y44" t="n">
-        <v>2080.694045790398</v>
+        <v>1266.894885235662</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1508696139405</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
@@ -7733,7 +7733,7 @@
         <v>296.4476481521845</v>
       </c>
       <c r="L45" t="n">
-        <v>687.7199234768461</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M45" t="n">
         <v>1082.635746712845</v>
@@ -7751,28 +7751,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="C46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="D46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="E46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="F46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="G46" t="n">
         <v>50.71143199091319</v>
@@ -7836,22 +7836,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U46" t="n">
-        <v>390.6311794045659</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V46" t="n">
-        <v>135.1399157005869</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="X46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>280.2420007006317</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>245.8259630674526</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
@@ -8297,16 +8297,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>216.9515155355301</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>379.1995711355881</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8315,7 +8315,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8540,10 +8540,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N9" t="n">
-        <v>344.2496456653008</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8552,7 +8552,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>187.8778705199065</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.44770712425048</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9968,7 +9968,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
         <v>331.2012793855346</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10904,7 +10904,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>89.00147381534894</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>60.72933541128936</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11384,7 +11384,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>368.6962349650029</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>23.57168247858573</v>
       </c>
       <c r="I11" t="n">
         <v>157.2246747536534</v>
@@ -23308,22 +23308,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>68.83121990744939</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>91.92161561464246</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>114.343041158128</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>142.3620141356152</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>166.8503316891052</v>
       </c>
       <c r="I14" t="n">
-        <v>8.540966011692213</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.5149286494106</v>
@@ -23554,7 +23554,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23563,7 +23563,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>91.92161561464246</v>
       </c>
       <c r="H15" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>33.93376427960204</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>175.5182399560916</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23734,7 +23734,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>47.81818172023202</v>
       </c>
       <c r="H17" t="n">
-        <v>139.6610502222263</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>81.68851577858757</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.886396962559651</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
@@ -23946,7 +23946,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>32.77262608040101</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23955,7 +23955,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.09380190545926</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>101.9190303597194</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>81.68851577858744</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>1.750113771095215</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>143.5965937103349</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>167.7325614543055</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
         <v>251.3781599023558</v>
@@ -24268,13 +24268,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>221.5483843308866</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>28.3537855385853</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>142.3620141356155</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.6097194764729</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>39.33953908578562</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>313.9653540308008</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>124.0149691332132</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
@@ -24624,7 +24624,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J28" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>283.3250655463387</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>156.8033685075474</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>26.71182721650734</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>91.92161561464246</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J31" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>115.5660230009853</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.439253160955</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
         <v>157.2246747536534</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>187.2565446314895</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>184.2450879849211</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>135.3103388999575</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>204.8170700184342</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
         <v>325.3930767845979</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
@@ -25210,7 +25210,7 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>59.31682475676905</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.750113771095279</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.22157743572448</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25332,10 +25332,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
         <v>148.2796428708918</v>
@@ -25368,10 +25368,10 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>53.37918862949104</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>353.3407665815271</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>337.1807544938109</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.750113771095499</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>142.3620141356155</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>142.5561610597322</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25636,13 +25636,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>134.595812677159</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
         <v>325.3930767845979</v>
@@ -25687,13 +25687,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>252.2602293858458</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.750113771095235</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>136.9633875020681</v>
+        <v>124.5133460022953</v>
       </c>
       <c r="J43" t="n">
         <v>49.35397375491781</v>
@@ -25839,10 +25839,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>175.5182399560914</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>301.6450694757476</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>204.7688594106913</v>
       </c>
       <c r="U44" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>91.92161561464245</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>56.8275365584017</v>
       </c>
       <c r="H46" t="n">
         <v>156.6686349500177</v>
@@ -26076,16 +26076,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>202.5083780148385</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644717.7460270126</v>
+        <v>644717.7460270127</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644717.7460270125</v>
+        <v>644717.7460270126</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644717.7460270126</v>
+        <v>644717.7460270127</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644717.7460270127</v>
+        <v>644717.7460270128</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>644717.7460270128</v>
+        <v>644717.7460270127</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644717.7460270126</v>
+        <v>644717.7460270127</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644717.7460270127</v>
+        <v>644717.7460270126</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644717.7460270126</v>
+        <v>644717.7460270127</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644717.7460270128</v>
+        <v>644717.7460270127</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644717.7460270126</v>
+        <v>644717.7460270127</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468003.6599535885</v>
+        <v>468003.6599535884</v>
       </c>
       <c r="C2" t="n">
         <v>468003.6599535884</v>
       </c>
       <c r="D2" t="n">
-        <v>468003.6599535883</v>
+        <v>468003.6599535884</v>
       </c>
       <c r="E2" t="n">
+        <v>315500.173587687</v>
+      </c>
+      <c r="F2" t="n">
+        <v>315500.173587687</v>
+      </c>
+      <c r="G2" t="n">
         <v>315500.1735876872</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>315500.1735876868</v>
+      </c>
+      <c r="I2" t="n">
         <v>315500.1735876871</v>
-      </c>
-      <c r="G2" t="n">
-        <v>315500.1735876871</v>
-      </c>
-      <c r="H2" t="n">
-        <v>315500.1735876873</v>
-      </c>
-      <c r="I2" t="n">
-        <v>315500.173587687</v>
       </c>
       <c r="J2" t="n">
         <v>315500.1735876871</v>
       </c>
       <c r="K2" t="n">
-        <v>315500.1735876872</v>
+        <v>315500.1735876871</v>
       </c>
       <c r="L2" t="n">
-        <v>315500.173587687</v>
+        <v>315500.1735876869</v>
       </c>
       <c r="M2" t="n">
-        <v>315500.1735876873</v>
+        <v>315500.1735876871</v>
       </c>
       <c r="N2" t="n">
         <v>315500.173587687</v>
       </c>
       <c r="O2" t="n">
-        <v>315500.1735876871</v>
+        <v>315500.173587687</v>
       </c>
       <c r="P2" t="n">
         <v>315500.1735876871</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.374401997774843e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>482.1892066389641</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1892066389641</v>
+        <v>482.189206638964</v>
       </c>
       <c r="G4" t="n">
         <v>482.189206638964</v>
@@ -26438,7 +26438,7 @@
         <v>482.1892066389641</v>
       </c>
       <c r="I4" t="n">
-        <v>482.1892066389641</v>
+        <v>482.189206638964</v>
       </c>
       <c r="J4" t="n">
         <v>482.189206638964</v>
@@ -26450,16 +26450,16 @@
         <v>482.189206638964</v>
       </c>
       <c r="M4" t="n">
-        <v>482.1892066389641</v>
+        <v>482.189206638964</v>
       </c>
       <c r="N4" t="n">
-        <v>482.1892066389641</v>
+        <v>482.189206638964</v>
       </c>
       <c r="O4" t="n">
-        <v>482.1892066389641</v>
+        <v>482.189206638964</v>
       </c>
       <c r="P4" t="n">
-        <v>482.1892066389642</v>
+        <v>482.189206638964</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58704.67320027528</v>
+        <v>58704.67320027521</v>
       </c>
       <c r="C6" t="n">
         <v>150623.4855680151</v>
       </c>
       <c r="D6" t="n">
-        <v>150623.485568015</v>
+        <v>150623.4855680151</v>
       </c>
       <c r="E6" t="n">
-        <v>-86463.70662130672</v>
+        <v>-93094.2929850418</v>
       </c>
       <c r="F6" t="n">
-        <v>269725.7232653734</v>
+        <v>263095.1369016384</v>
       </c>
       <c r="G6" t="n">
-        <v>269725.7232653733</v>
+        <v>263095.1369016385</v>
       </c>
       <c r="H6" t="n">
-        <v>269725.7232653735</v>
+        <v>263095.1369016382</v>
       </c>
       <c r="I6" t="n">
-        <v>269725.7232653733</v>
+        <v>263095.1369016385</v>
       </c>
       <c r="J6" t="n">
-        <v>197961.0107772871</v>
+        <v>191330.4244135522</v>
       </c>
       <c r="K6" t="n">
-        <v>269725.7232653734</v>
+        <v>263095.1369016385</v>
       </c>
       <c r="L6" t="n">
-        <v>269725.7232653732</v>
+        <v>263095.1369016383</v>
       </c>
       <c r="M6" t="n">
-        <v>180109.6989668361</v>
+        <v>173479.1126031011</v>
       </c>
       <c r="N6" t="n">
-        <v>269725.7232653733</v>
+        <v>263095.1369016384</v>
       </c>
       <c r="O6" t="n">
-        <v>269725.7232653734</v>
+        <v>263095.1369016384</v>
       </c>
       <c r="P6" t="n">
-        <v>269725.7232653733</v>
+        <v>263095.1369016385</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.205731028013953e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>112.3587969879937</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>63.86009604655089</v>
+        <v>140.8352649828207</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>16.58278124899095</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -27472,7 +27472,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
@@ -27514,19 +27514,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>69.1030386045577</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27557,10 +27557,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V4" t="n">
-        <v>252.9363510669392</v>
+        <v>88.79763414316417</v>
       </c>
       <c r="W4" t="n">
         <v>286.0925768874155</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497925</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
-        <v>147.5445470568313</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>279.6742839679264</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655084</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -27681,7 +27681,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.57779178956685</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
@@ -27715,7 +27715,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,13 +27751,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>50.24743635262965</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>162.6952048236366</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3365529312023</v>
+        <v>152.2034025219467</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.9746241731992</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>74.23872090402213</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>164.9351385038459</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
-        <v>82.32092541299585</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
-        <v>108.8342284136849</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
-        <v>166.36396310862</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -27988,16 +27988,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>16.81139067155229</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>232.2250950653388</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>121.9135534672892</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -31840,7 +31840,7 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
@@ -31858,10 +31858,10 @@
         <v>158.4960056351046</v>
       </c>
       <c r="P12" t="n">
-        <v>127.2070177768574</v>
+        <v>11.56998644186041</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R12" t="n">
         <v>41.36024952108948</v>
@@ -32083,7 +32083,7 @@
         <v>107.5699566698185</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6410816997411</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>168.7893200645195</v>
@@ -32095,10 +32095,10 @@
         <v>158.4960056351046</v>
       </c>
       <c r="P15" t="n">
-        <v>11.56998644186041</v>
+        <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962051</v>
+        <v>43.63323163162866</v>
       </c>
       <c r="R15" t="n">
         <v>41.36024952108948</v>
@@ -32232,13 +32232,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K17" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L17" t="n">
         <v>196.477585181553</v>
@@ -32247,7 +32247,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N17" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O17" t="n">
         <v>209.776231993146</v>
@@ -32259,16 +32259,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S17" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I18" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K18" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>125.6313811430405</v>
+        <v>136.5740070345625</v>
       </c>
       <c r="M18" t="n">
         <v>168.7893200645195</v>
@@ -32329,16 +32329,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O18" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P18" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S18" t="n">
         <v>12.37359824256949</v>
@@ -32347,7 +32347,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H19" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I19" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J19" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L19" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M19" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P19" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R19" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T19" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,13 +32469,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K20" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
         <v>196.477585181553</v>
@@ -32484,7 +32484,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N20" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O20" t="n">
         <v>209.776231993146</v>
@@ -32496,16 +32496,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S20" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I21" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871066</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M21" t="n">
-        <v>168.7893200645195</v>
+        <v>153.2542546453159</v>
       </c>
       <c r="N21" t="n">
-        <v>165.1895964531518</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O21" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P21" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S21" t="n">
         <v>12.37359824256949</v>
@@ -32584,7 +32584,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H22" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J22" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L22" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M22" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P22" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R22" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I23" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J23" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K23" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L23" t="n">
         <v>196.477585181553</v>
@@ -32721,7 +32721,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N23" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O23" t="n">
         <v>209.776231993146</v>
@@ -32733,16 +32733,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R23" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S23" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T23" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H24" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I24" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J24" t="n">
-        <v>62.93735058871066</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L24" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M24" t="n">
         <v>168.7893200645195</v>
       </c>
       <c r="N24" t="n">
-        <v>57.61963978333347</v>
+        <v>135.1861716389284</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P24" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.0345226096205</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S24" t="n">
         <v>12.37359824256949</v>
@@ -32821,7 +32821,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H25" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I25" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J25" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K25" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L25" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M25" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N25" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O25" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P25" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R25" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S25" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,13 +32943,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I26" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J26" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K26" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L26" t="n">
         <v>196.477585181553</v>
@@ -32958,7 +32958,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N26" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O26" t="n">
         <v>209.776231993146</v>
@@ -32970,16 +32970,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R26" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S26" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T26" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H27" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I27" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J27" t="n">
-        <v>62.93735058871066</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>144.641081699741</v>
+        <v>129.1060162805373</v>
       </c>
       <c r="M27" t="n">
         <v>168.7893200645195</v>
@@ -33040,16 +33040,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O27" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P27" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R27" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S27" t="n">
         <v>12.37359824256949</v>
@@ -33058,7 +33058,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H28" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I28" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J28" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K28" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L28" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M28" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N28" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P28" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R28" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S28" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T28" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I29" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J29" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K29" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L29" t="n">
         <v>196.477585181553</v>
@@ -33195,7 +33195,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N29" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O29" t="n">
         <v>209.776231993146</v>
@@ -33207,16 +33207,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R29" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S29" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T29" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,40 +33253,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H30" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I30" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J30" t="n">
-        <v>62.93735058871066</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L30" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M30" t="n">
         <v>168.7893200645195</v>
       </c>
       <c r="N30" t="n">
-        <v>57.61963978333347</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4960056351045</v>
+        <v>35.3909835460824</v>
       </c>
       <c r="P30" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R30" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S30" t="n">
         <v>12.37359824256949</v>
@@ -33295,7 +33295,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H31" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I31" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J31" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K31" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L31" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M31" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N31" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P31" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R31" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S31" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T31" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I32" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J32" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K32" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L32" t="n">
         <v>196.477585181553</v>
@@ -33432,7 +33432,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N32" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O32" t="n">
         <v>209.776231993146</v>
@@ -33444,16 +33444,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R32" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S32" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T32" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H33" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I33" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J33" t="n">
-        <v>62.93735058871066</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>144.641081699741</v>
+        <v>129.1060162805373</v>
       </c>
       <c r="M33" t="n">
         <v>168.7893200645195</v>
@@ -33514,16 +33514,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O33" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P33" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R33" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S33" t="n">
         <v>12.37359824256949</v>
@@ -33532,7 +33532,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H34" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I34" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J34" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K34" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L34" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M34" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N34" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P34" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R34" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S34" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T34" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I35" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J35" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K35" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L35" t="n">
         <v>196.477585181553</v>
@@ -33669,7 +33669,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N35" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O35" t="n">
         <v>209.776231993146</v>
@@ -33681,16 +33681,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R35" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S35" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T35" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,40 +33727,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H36" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I36" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J36" t="n">
-        <v>62.93735058871066</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>144.641081699741</v>
+        <v>129.1060162805373</v>
       </c>
       <c r="M36" t="n">
         <v>168.7893200645195</v>
       </c>
       <c r="N36" t="n">
-        <v>57.61963978333347</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P36" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R36" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S36" t="n">
         <v>12.37359824256949</v>
@@ -33769,7 +33769,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H37" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I37" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J37" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K37" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L37" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M37" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N37" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O37" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P37" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R37" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S37" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T37" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,13 +33891,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I38" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J38" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K38" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L38" t="n">
         <v>196.477585181553</v>
@@ -33906,7 +33906,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N38" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O38" t="n">
         <v>209.776231993146</v>
@@ -33918,16 +33918,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R38" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S38" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T38" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H39" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I39" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J39" t="n">
-        <v>62.93735058871066</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>144.641081699741</v>
+        <v>129.1060162805373</v>
       </c>
       <c r="M39" t="n">
         <v>168.7893200645195</v>
@@ -33988,16 +33988,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O39" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P39" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R39" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S39" t="n">
         <v>12.37359824256949</v>
@@ -34006,7 +34006,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H40" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I40" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J40" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K40" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L40" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M40" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N40" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O40" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P40" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R40" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S40" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T40" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,13 +34210,13 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J42" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>76.96744794444163</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6410816997411</v>
+        <v>21.53605961071884</v>
       </c>
       <c r="M42" t="n">
         <v>168.7893200645195</v>
@@ -34231,7 +34231,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R42" t="n">
         <v>41.36024952108948</v>
@@ -34386,7 +34386,7 @@
         <v>209.776231993146</v>
       </c>
       <c r="P44" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q44" t="n">
         <v>134.4509533879849</v>
@@ -34447,13 +34447,13 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6410816997411</v>
+        <v>29.00405036474399</v>
       </c>
       <c r="M45" t="n">
         <v>168.7893200645195</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>141.6613176266638</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>106.7946247341192</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
@@ -35017,16 +35017,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>82.55611253553009</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>251.1414018543382</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35035,7 +35035,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N9" t="n">
-        <v>216.1914763840509</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35272,7 +35272,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.7832499334201</v>
+        <v>212.146218598423</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2245205299612</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
         <v>514.5419032905515</v>
@@ -35743,10 +35743,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
-        <v>212.146218598423</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>125.6313811430408</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>248.2184001629003</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
-        <v>376.2148199732607</v>
+        <v>387.1574458647827</v>
       </c>
       <c r="M18" t="n">
         <v>514.5419032905515</v>
@@ -35980,10 +35980,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
@@ -36208,16 +36208,16 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M21" t="n">
-        <v>514.5419032905515</v>
+        <v>499.006837871348</v>
       </c>
       <c r="N21" t="n">
-        <v>535.6474964891975</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P21" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
         <v>167.0326721210326</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36448,16 +36448,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>428.0775398193791</v>
+        <v>505.644071674974</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.0326721210326</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L25" t="n">
         <v>120.492579780375</v>
@@ -36533,7 +36533,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P25" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40534134273582</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>248.2184001629003</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
-        <v>395.2245205299612</v>
+        <v>379.6894551107575</v>
       </c>
       <c r="M27" t="n">
         <v>514.5419032905515</v>
@@ -36688,10 +36688,10 @@
         <v>543.714571154376</v>
       </c>
       <c r="O27" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
         <v>167.0326721210326</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L28" t="n">
         <v>120.492579780375</v>
@@ -36770,7 +36770,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P28" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36922,13 +36922,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>428.0775398193791</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O30" t="n">
-        <v>429.0814793495699</v>
+        <v>305.9764572605478</v>
       </c>
       <c r="P30" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
         <v>167.0326721210326</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L31" t="n">
         <v>120.492579780375</v>
@@ -37007,7 +37007,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P31" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>248.2184001629003</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>395.2245205299612</v>
+        <v>379.6894551107575</v>
       </c>
       <c r="M33" t="n">
         <v>514.5419032905515</v>
@@ -37165,10 +37165,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L34" t="n">
         <v>120.492579780375</v>
@@ -37244,7 +37244,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P34" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>248.2184001629003</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
-        <v>395.2245205299612</v>
+        <v>379.6894551107575</v>
       </c>
       <c r="M36" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>428.0775398193791</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
         <v>167.0326721210326</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L37" t="n">
         <v>120.492579780375</v>
@@ -37481,7 +37481,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P37" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>70.40534134273582</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>62.17602748516742</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2245205299612</v>
+        <v>379.6894551107575</v>
       </c>
       <c r="M39" t="n">
         <v>514.5419032905515</v>
@@ -37639,7 +37639,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
         <v>167.0326721210326</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L40" t="n">
         <v>120.492579780375</v>
@@ -37718,7 +37718,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P40" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>217.6158914375234</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2245205299612</v>
+        <v>272.119498440939</v>
       </c>
       <c r="M42" t="n">
         <v>514.5419032905515</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>381.4626643702566</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2245205299612</v>
+        <v>279.5874891949642</v>
       </c>
       <c r="M45" t="n">
-        <v>398.9048719555545</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
         <v>543.714571154376</v>
